--- a/Tools/CostBreakdown.xlsx
+++ b/Tools/CostBreakdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakeo\Documents\MATLAB\Aurora-MATLAB\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D58A26-E2E3-4DFF-8E8F-C919EAF0F74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5905B5-9D3A-4D97-B877-BB1B517E1E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5856" yWindow="1044" windowWidth="17184" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Tools/CostBreakdown.xlsx
+++ b/Tools/CostBreakdown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakeo\Documents\MATLAB\Aurora-MATLAB\Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nduka\OneDrive\Документы\MATLAB\Aurora-MATLAB\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5905B5-9D3A-4D97-B877-BB1B517E1E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DCC0A4-F360-4C2E-836C-BBC4344C574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="1044" windowWidth="17184" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Breakdown" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>OccurrenceNumber</t>
   </si>
   <si>
-    <t>'fins001'</t>
-  </si>
-  <si>
-    <t>'fins002'</t>
-  </si>
-  <si>
-    <t>'fins003'</t>
+    <t>'alti001'</t>
+  </si>
+  <si>
+    <t>'prse001'</t>
   </si>
   <si>
     <t>ComponentName</t>
   </si>
   <si>
-    <t>Fin[2]</t>
-  </si>
-  <si>
-    <t>Fin[1]</t>
-  </si>
-  <si>
-    <t>Fin[3]</t>
+    <t>altimeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure Sensor </t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -454,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -492,30 +486,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
